--- a/Code/Results/Cases/Case_5_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_64/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.20841859248597</v>
+        <v>0.6681570004204502</v>
       </c>
       <c r="C2">
-        <v>0.1024644753219413</v>
+        <v>0.1604053655958566</v>
       </c>
       <c r="D2">
-        <v>0.06425466489064746</v>
+        <v>0.04564022844408555</v>
       </c>
       <c r="E2">
-        <v>0.07355343990363039</v>
+        <v>0.1136851970799277</v>
       </c>
       <c r="F2">
-        <v>0.5966268085527275</v>
+        <v>0.9761275492257937</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9555797623439162</v>
+        <v>0.3453905516444422</v>
       </c>
       <c r="L2">
-        <v>0.2512144197887807</v>
+        <v>0.194925035562008</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8521434783327377</v>
+        <v>1.777081668538673</v>
       </c>
       <c r="O2">
-        <v>1.834282180501873</v>
+        <v>3.483441505578298</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.052050340845312</v>
+        <v>0.625680176426755</v>
       </c>
       <c r="C3">
-        <v>0.1018822296514585</v>
+        <v>0.1602524579799933</v>
       </c>
       <c r="D3">
-        <v>0.05906228240924349</v>
+        <v>0.04377703379804387</v>
       </c>
       <c r="E3">
-        <v>0.06861423078538564</v>
+        <v>0.1131101741653424</v>
       </c>
       <c r="F3">
-        <v>0.5678549162471285</v>
+        <v>0.9753539534409583</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8304474726728301</v>
+        <v>0.308724455370168</v>
       </c>
       <c r="L3">
-        <v>0.2215335133652729</v>
+        <v>0.1878130467409278</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8947188306506941</v>
+        <v>1.795260466066001</v>
       </c>
       <c r="O3">
-        <v>1.787019331169517</v>
+        <v>3.494724656376093</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9565055475980273</v>
+        <v>0.599842645944932</v>
       </c>
       <c r="C4">
-        <v>0.1015454881518956</v>
+        <v>0.16016898756369</v>
       </c>
       <c r="D4">
-        <v>0.05585841245682133</v>
+        <v>0.04261964192379963</v>
       </c>
       <c r="E4">
-        <v>0.06568216390492054</v>
+        <v>0.112813985447616</v>
       </c>
       <c r="F4">
-        <v>0.551222624178024</v>
+        <v>0.9754090563247715</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7537647392713325</v>
+        <v>0.2862491978763728</v>
       </c>
       <c r="L4">
-        <v>0.2035279844610045</v>
+        <v>0.1835499510698924</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9219831657768536</v>
+        <v>1.806992143303773</v>
       </c>
       <c r="O4">
-        <v>1.76134838341892</v>
+        <v>3.503407944328444</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9176711630623515</v>
+        <v>0.5893754893466792</v>
       </c>
       <c r="C5">
-        <v>0.1014134443022101</v>
+        <v>0.160137611736026</v>
       </c>
       <c r="D5">
-        <v>0.05454865502811401</v>
+        <v>0.04214465020783109</v>
       </c>
       <c r="E5">
-        <v>0.06451132950789429</v>
+        <v>0.1127076087529844</v>
       </c>
       <c r="F5">
-        <v>0.544691991870657</v>
+        <v>0.9755648813239688</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7225419964380251</v>
+        <v>0.2771003453930376</v>
       </c>
       <c r="L5">
-        <v>0.1962407873560181</v>
+        <v>0.1818388534495909</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9333694546550042</v>
+        <v>1.811916181421172</v>
       </c>
       <c r="O5">
-        <v>1.75169183160726</v>
+        <v>3.507388020435627</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9112283773141883</v>
+        <v>0.5876411801841073</v>
       </c>
       <c r="C6">
-        <v>0.1013918303942347</v>
+        <v>0.1601325617832927</v>
       </c>
       <c r="D6">
-        <v>0.05433091426607461</v>
+        <v>0.04206557674890377</v>
       </c>
       <c r="E6">
-        <v>0.06431832649631986</v>
+        <v>0.112690810630788</v>
       </c>
       <c r="F6">
-        <v>0.5436221506836603</v>
+        <v>0.97559881335075</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7173587389962677</v>
+        <v>0.2755818031805006</v>
       </c>
       <c r="L6">
-        <v>0.1950336504507533</v>
+        <v>0.1815563084687142</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9352766154516914</v>
+        <v>1.81274246820559</v>
       </c>
       <c r="O6">
-        <v>1.75013590021419</v>
+        <v>3.50807558325306</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9559814258853692</v>
+        <v>0.5997012309476304</v>
       </c>
       <c r="C7">
-        <v>0.1015436864325885</v>
+        <v>0.1601685537065514</v>
       </c>
       <c r="D7">
-        <v>0.05584076568726459</v>
+        <v>0.04261324953650103</v>
       </c>
       <c r="E7">
-        <v>0.06566627809155889</v>
+        <v>0.1128124927954381</v>
       </c>
       <c r="F7">
-        <v>0.5511335655044363</v>
+        <v>0.9754106177275759</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7533435673813358</v>
+        <v>0.2861257721451409</v>
       </c>
       <c r="L7">
-        <v>0.2034295096609071</v>
+        <v>0.1835267686367672</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9221356167116568</v>
+        <v>1.807057970453685</v>
       </c>
       <c r="O7">
-        <v>1.761214942351614</v>
+        <v>3.503459832935448</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.154396011538751</v>
+        <v>0.653460840824124</v>
       </c>
       <c r="C8">
-        <v>0.1022593829608418</v>
+        <v>0.1603504931666144</v>
       </c>
       <c r="D8">
-        <v>0.06246747006796483</v>
+        <v>0.04500058810160823</v>
       </c>
       <c r="E8">
-        <v>0.0718287147979062</v>
+        <v>0.1134751359154507</v>
       </c>
       <c r="F8">
-        <v>0.5864838111446744</v>
+        <v>0.9757508337641383</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9123961529680003</v>
+        <v>0.3327404938338248</v>
       </c>
       <c r="L8">
-        <v>0.2409320991920936</v>
+        <v>0.1924513417285567</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8665863962948119</v>
+        <v>1.783231451866865</v>
       </c>
       <c r="O8">
-        <v>1.817267817780703</v>
+        <v>3.48696769487924</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.547978156606945</v>
+        <v>0.7607922397304776</v>
       </c>
       <c r="C9">
-        <v>0.1038297329589</v>
+        <v>0.160789084671066</v>
       </c>
       <c r="D9">
-        <v>0.07534780401383756</v>
+        <v>0.04957527409242601</v>
       </c>
       <c r="E9">
-        <v>0.08477375680088528</v>
+        <v>0.1152251885736355</v>
       </c>
       <c r="F9">
-        <v>0.6646184698578494</v>
+        <v>0.9806221767804644</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.226038351035186</v>
+        <v>0.4244360343207063</v>
       </c>
       <c r="L9">
-        <v>0.3164404143302306</v>
+        <v>0.2107730314315006</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.766869836949339</v>
+        <v>1.741028368442693</v>
       </c>
       <c r="O9">
-        <v>1.95554409163924</v>
+        <v>3.468550780601646</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.841078511362838</v>
+        <v>0.8407906717435765</v>
       </c>
       <c r="C10">
-        <v>0.1050887864408594</v>
+        <v>0.1611601358179726</v>
       </c>
       <c r="D10">
-        <v>0.08475693154747432</v>
+        <v>0.05287049434147661</v>
       </c>
       <c r="E10">
-        <v>0.09490090627645031</v>
+        <v>0.1167850329405873</v>
       </c>
       <c r="F10">
-        <v>0.7282976180853353</v>
+        <v>0.9867636300128311</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.458377565736981</v>
+        <v>0.4919627630806076</v>
       </c>
       <c r="L10">
-        <v>0.3734587975501569</v>
+        <v>0.2247330074573171</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6996699236551143</v>
+        <v>1.712775750114063</v>
       </c>
       <c r="O10">
-        <v>2.077057824621477</v>
+        <v>3.463507185780543</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.975557624505626</v>
+        <v>0.8774279078903646</v>
       </c>
       <c r="C11">
-        <v>0.1056853629197008</v>
+        <v>0.1613393189855969</v>
       </c>
       <c r="D11">
-        <v>0.08902942792276747</v>
+        <v>0.05435516573734134</v>
       </c>
       <c r="E11">
-        <v>0.09966355690634288</v>
+        <v>0.117554046804738</v>
       </c>
       <c r="F11">
-        <v>0.7588424859292218</v>
+        <v>0.9901139800157068</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.56469086349955</v>
+        <v>0.5227138875153798</v>
       </c>
       <c r="L11">
-        <v>0.3998145137981481</v>
+        <v>0.2311919513844032</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.670520332784041</v>
+        <v>1.700520497415737</v>
       </c>
       <c r="O11">
-        <v>2.137288272929567</v>
+        <v>3.463055735570066</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.026671167042934</v>
+        <v>0.8913362473992947</v>
       </c>
       <c r="C12">
-        <v>0.1059147817090746</v>
+        <v>0.1614086459381951</v>
       </c>
       <c r="D12">
-        <v>0.09064651041574479</v>
+        <v>0.05491529280831031</v>
       </c>
       <c r="E12">
-        <v>0.1014913597215106</v>
+        <v>0.1178537829382371</v>
       </c>
       <c r="F12">
-        <v>0.7706547318893229</v>
+        <v>0.9914626671603912</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.605055908477226</v>
+        <v>0.5343628709390771</v>
       </c>
       <c r="L12">
-        <v>0.4098619949936761</v>
+        <v>0.2336533325760257</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6596959025171403</v>
+        <v>1.695965610553349</v>
       </c>
       <c r="O12">
-        <v>2.160863961937508</v>
+        <v>3.463149727143389</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.015654128604695</v>
+        <v>0.8883393092922915</v>
       </c>
       <c r="C13">
-        <v>0.1058652148319013</v>
+        <v>0.1613936498909254</v>
       </c>
       <c r="D13">
-        <v>0.09029827425185033</v>
+        <v>0.05479475256210975</v>
       </c>
       <c r="E13">
-        <v>0.1010965978954808</v>
+        <v>0.1177888504513263</v>
       </c>
       <c r="F13">
-        <v>0.7680995185539103</v>
+        <v>0.9911686468553995</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.596357549528307</v>
+        <v>0.5318538755439874</v>
       </c>
       <c r="L13">
-        <v>0.4076949861621699</v>
+        <v>0.2331225411529374</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6620174632214217</v>
+        <v>1.696942764978462</v>
       </c>
       <c r="O13">
-        <v>2.155751446872671</v>
+        <v>3.463117701820977</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.979758828293626</v>
+        <v>0.8785714656414143</v>
       </c>
       <c r="C14">
-        <v>0.1057041665283833</v>
+        <v>0.1613449931249846</v>
       </c>
       <c r="D14">
-        <v>0.08916248091581735</v>
+        <v>0.0544012896655488</v>
       </c>
       <c r="E14">
-        <v>0.09981343324623637</v>
+        <v>0.1175785354873931</v>
       </c>
       <c r="F14">
-        <v>0.7598092527036187</v>
+        <v>0.9902233346552691</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.568009482484342</v>
+        <v>0.523672175242865</v>
       </c>
       <c r="L14">
-        <v>0.4006397382494811</v>
+        <v>0.2313941401270654</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6696254559249706</v>
+        <v>1.700144041971894</v>
       </c>
       <c r="O14">
-        <v>2.139212141485984</v>
+        <v>3.463058158756809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.957797315756721</v>
+        <v>0.8725928663614866</v>
       </c>
       <c r="C15">
-        <v>0.1056059792608366</v>
+        <v>0.1613153808436252</v>
       </c>
       <c r="D15">
-        <v>0.08846667718619727</v>
+        <v>0.05416000995204939</v>
       </c>
       <c r="E15">
-        <v>0.09903067945156607</v>
+        <v>0.1174508214333336</v>
       </c>
       <c r="F15">
-        <v>0.7547637855240055</v>
+        <v>0.9896547181361655</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.550659875098432</v>
+        <v>0.5186611788586504</v>
       </c>
       <c r="L15">
-        <v>0.3963271572972076</v>
+        <v>0.2303374632766264</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6743137243703368</v>
+        <v>1.702116106667567</v>
       </c>
       <c r="O15">
-        <v>2.129183030525041</v>
+        <v>3.463056188856058</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.832315097066953</v>
+        <v>0.8384012237600871</v>
       </c>
       <c r="C16">
-        <v>0.1050502850132204</v>
+        <v>0.1611486331473699</v>
       </c>
       <c r="D16">
-        <v>0.08447758259720928</v>
+        <v>0.05277317698701012</v>
       </c>
       <c r="E16">
-        <v>0.09459294911180294</v>
+        <v>0.1167359703864257</v>
       </c>
       <c r="F16">
-        <v>0.7263347499692117</v>
+        <v>0.9865558719802721</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.451443680788486</v>
+        <v>0.4899537212522205</v>
       </c>
       <c r="L16">
-        <v>0.3717453894585248</v>
+        <v>0.2243130763585981</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7016043058862964</v>
+        <v>1.713588678273044</v>
       </c>
       <c r="O16">
-        <v>2.073225950226259</v>
+        <v>3.46357376783655</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.755646230363737</v>
+        <v>0.8174881541653747</v>
       </c>
       <c r="C17">
-        <v>0.1047155425856943</v>
+        <v>0.1610489857895487</v>
       </c>
       <c r="D17">
-        <v>0.08202861916154802</v>
+        <v>0.05191871009629523</v>
       </c>
       <c r="E17">
-        <v>0.091911747193965</v>
+        <v>0.1163126410416986</v>
       </c>
       <c r="F17">
-        <v>0.7093113335363981</v>
+        <v>0.9847973448938063</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.390748672821388</v>
+        <v>0.4723506711353593</v>
       </c>
       <c r="L17">
-        <v>0.3567771517614062</v>
+        <v>0.2206450378355385</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7187165841141967</v>
+        <v>1.720779680501872</v>
       </c>
       <c r="O17">
-        <v>2.040205024814185</v>
+        <v>3.464363254555138</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.7116546616015</v>
+        <v>0.8054826634906931</v>
       </c>
       <c r="C18">
-        <v>0.1045252448275633</v>
+        <v>0.1609926504160484</v>
       </c>
       <c r="D18">
-        <v>0.08061929051862649</v>
+        <v>0.0514258949258064</v>
       </c>
       <c r="E18">
-        <v>0.09038413121924904</v>
+        <v>0.1160747484478115</v>
       </c>
       <c r="F18">
-        <v>0.6996671419780895</v>
+        <v>0.9838382769862264</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.355895861606029</v>
+        <v>0.4622289883931785</v>
       </c>
       <c r="L18">
-        <v>0.3482066887702757</v>
+        <v>0.2185454946470458</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7286921523856051</v>
+        <v>1.724971943806412</v>
       </c>
       <c r="O18">
-        <v>2.02167494835868</v>
+        <v>3.464990813210079</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.696777420153495</v>
+        <v>0.8014218085243101</v>
       </c>
       <c r="C19">
-        <v>0.1044611951767394</v>
+        <v>0.1609737450063022</v>
       </c>
       <c r="D19">
-        <v>0.0801419785735149</v>
+        <v>0.05125880530331983</v>
       </c>
       <c r="E19">
-        <v>0.08986934835931493</v>
+        <v>0.1159951636724834</v>
       </c>
       <c r="F19">
-        <v>0.6964265179641558</v>
+        <v>0.9835225527429756</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.344104644673223</v>
+        <v>0.4588025135104772</v>
       </c>
       <c r="L19">
-        <v>0.3453113458189421</v>
+        <v>0.2178363823608578</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7320922728544446</v>
+        <v>1.726401020780456</v>
       </c>
       <c r="O19">
-        <v>2.015478820659013</v>
+        <v>3.46523308875345</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.763796585569594</v>
+        <v>0.8197119948320335</v>
       </c>
       <c r="C20">
-        <v>0.1047509443801147</v>
+        <v>0.1610594922270181</v>
       </c>
       <c r="D20">
-        <v>0.08228939099675614</v>
+        <v>0.05200980928198362</v>
       </c>
       <c r="E20">
-        <v>0.09219564751593623</v>
+        <v>0.1163571262241625</v>
       </c>
       <c r="F20">
-        <v>0.7111081355337134</v>
+        <v>0.9849791212725449</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.397203703625877</v>
+        <v>0.4742242261522165</v>
       </c>
       <c r="L20">
-        <v>0.3583664734863845</v>
+        <v>0.2210344501056625</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7168811157267294</v>
+        <v>1.720008370237489</v>
       </c>
       <c r="O20">
-        <v>2.043671882632708</v>
+        <v>3.464261259627506</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.9902968097594</v>
+        <v>0.8814395842542808</v>
       </c>
       <c r="C21">
-        <v>0.1057513744063812</v>
+        <v>0.1613592449455936</v>
       </c>
       <c r="D21">
-        <v>0.08949611071359698</v>
+        <v>0.05451691605161813</v>
       </c>
       <c r="E21">
-        <v>0.1001896548750594</v>
+        <v>0.1176400788153131</v>
       </c>
       <c r="F21">
-        <v>0.7622374838885548</v>
+        <v>0.9904988254851901</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.576332963048259</v>
+        <v>0.5260752291706581</v>
       </c>
       <c r="L21">
-        <v>0.4027101545823228</v>
+        <v>0.2319013928576084</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6673849187166994</v>
+        <v>1.69920141719581</v>
       </c>
       <c r="O21">
-        <v>2.144048839684046</v>
+        <v>3.463068457935037</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.139443308377281</v>
+        <v>0.921983561466277</v>
       </c>
       <c r="C22">
-        <v>0.1064257068878689</v>
+        <v>0.1615637341537877</v>
       </c>
       <c r="D22">
-        <v>0.0942014965460416</v>
+        <v>0.05614328684723091</v>
       </c>
       <c r="E22">
-        <v>0.1055567529481181</v>
+        <v>0.1185282570388715</v>
       </c>
       <c r="F22">
-        <v>0.7970944841502927</v>
+        <v>0.9945724446693731</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.69403399196807</v>
+        <v>0.5599870924885693</v>
       </c>
       <c r="L22">
-        <v>0.4320863127439907</v>
+        <v>0.2390939889457115</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6362879660069964</v>
+        <v>1.686103658704706</v>
       </c>
       <c r="O22">
-        <v>2.214154400496426</v>
+        <v>3.463833171941559</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.059730430827756</v>
+        <v>0.9003262772671405</v>
       </c>
       <c r="C23">
-        <v>0.1060638981816382</v>
+        <v>0.1614538155716332</v>
       </c>
       <c r="D23">
-        <v>0.09169046299928851</v>
+        <v>0.05527638335661322</v>
       </c>
       <c r="E23">
-        <v>0.102678530031497</v>
+        <v>0.1180496788865746</v>
       </c>
       <c r="F23">
-        <v>0.7783522425976912</v>
+        <v>0.9923556399580065</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.631151103788341</v>
+        <v>0.5418856497705349</v>
       </c>
       <c r="L23">
-        <v>0.4163690978316197</v>
+        <v>0.2352469181527255</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6527670914189381</v>
+        <v>1.693048335354891</v>
       </c>
       <c r="O23">
-        <v>2.176306349728662</v>
+        <v>3.463283748597632</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.760111542737121</v>
+        <v>0.8187065412442678</v>
       </c>
       <c r="C24">
-        <v>0.1047349325377169</v>
+        <v>0.1610547392956718</v>
       </c>
       <c r="D24">
-        <v>0.08217150039222076</v>
+        <v>0.05196862823077453</v>
       </c>
       <c r="E24">
-        <v>0.09206725320505171</v>
+        <v>0.1163369973866359</v>
       </c>
       <c r="F24">
-        <v>0.7102953579764701</v>
+        <v>0.9848967784005112</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.394285256042991</v>
+        <v>0.4733771964216089</v>
       </c>
       <c r="L24">
-        <v>0.3576478327201045</v>
+        <v>0.2208583679661729</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7177105034548967</v>
+        <v>1.720356898755047</v>
       </c>
       <c r="O24">
-        <v>2.042103105961985</v>
+        <v>3.464306830548281</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.440903859487122</v>
+        <v>0.7315541259502254</v>
       </c>
       <c r="C25">
-        <v>0.1033867019418366</v>
+        <v>0.160661785395888</v>
       </c>
       <c r="D25">
-        <v>0.07187402687466005</v>
+        <v>0.04834920894071359</v>
       </c>
       <c r="E25">
-        <v>0.08117050063174247</v>
+        <v>0.1147035761417037</v>
       </c>
       <c r="F25">
-        <v>0.6424477665939605</v>
+        <v>0.9788543130697533</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.140919545330007</v>
+        <v>0.3996011089199101</v>
       </c>
       <c r="L25">
-        <v>0.2957687132447404</v>
+        <v>0.2057288020059787</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7928151252284508</v>
+        <v>1.751961663483082</v>
       </c>
       <c r="O25">
-        <v>1.914838706049352</v>
+        <v>3.472042496418453</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_64/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6681570004204502</v>
+        <v>1.208418592485998</v>
       </c>
       <c r="C2">
-        <v>0.1604053655958566</v>
+        <v>0.1024644753220372</v>
       </c>
       <c r="D2">
-        <v>0.04564022844408555</v>
+        <v>0.0642546648908322</v>
       </c>
       <c r="E2">
-        <v>0.1136851970799277</v>
+        <v>0.07355343990361263</v>
       </c>
       <c r="F2">
-        <v>0.9761275492257937</v>
+        <v>0.5966268085527346</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3453905516444422</v>
+        <v>0.9555797623440299</v>
       </c>
       <c r="L2">
-        <v>0.194925035562008</v>
+        <v>0.2512144197888233</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.777081668538673</v>
+        <v>0.8521434783327226</v>
       </c>
       <c r="O2">
-        <v>3.483441505578298</v>
+        <v>1.834282180501987</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.625680176426755</v>
+        <v>1.052050340845369</v>
       </c>
       <c r="C3">
-        <v>0.1602524579799933</v>
+        <v>0.1018822296517783</v>
       </c>
       <c r="D3">
-        <v>0.04377703379804387</v>
+        <v>0.05906228240924349</v>
       </c>
       <c r="E3">
-        <v>0.1131101741653424</v>
+        <v>0.06861423078539985</v>
       </c>
       <c r="F3">
-        <v>0.9753539534409583</v>
+        <v>0.5678549162471569</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.308724455370168</v>
+        <v>0.8304474726730575</v>
       </c>
       <c r="L3">
-        <v>0.1878130467409278</v>
+        <v>0.2215335133651308</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.795260466066001</v>
+        <v>0.8947188306507119</v>
       </c>
       <c r="O3">
-        <v>3.494724656376093</v>
+        <v>1.78701933116966</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.599842645944932</v>
+        <v>0.956505547598141</v>
       </c>
       <c r="C4">
-        <v>0.16016898756369</v>
+        <v>0.1015454881517499</v>
       </c>
       <c r="D4">
-        <v>0.04261964192379963</v>
+        <v>0.05585841245662948</v>
       </c>
       <c r="E4">
-        <v>0.112813985447616</v>
+        <v>0.06568216390490988</v>
       </c>
       <c r="F4">
-        <v>0.9754090563247715</v>
+        <v>0.551222624178024</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2862491978763728</v>
+        <v>0.7537647392713893</v>
       </c>
       <c r="L4">
-        <v>0.1835499510698924</v>
+        <v>0.2035279844609335</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.806992143303773</v>
+        <v>0.9219831657768802</v>
       </c>
       <c r="O4">
-        <v>3.503407944328444</v>
+        <v>1.761348383419033</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5893754893466792</v>
+        <v>0.9176711630624652</v>
       </c>
       <c r="C5">
-        <v>0.160137611736026</v>
+        <v>0.1014134443022954</v>
       </c>
       <c r="D5">
-        <v>0.04214465020783109</v>
+        <v>0.0545486550282348</v>
       </c>
       <c r="E5">
-        <v>0.1127076087529844</v>
+        <v>0.06451132950791205</v>
       </c>
       <c r="F5">
-        <v>0.9755648813239688</v>
+        <v>0.5446919918706712</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2771003453930376</v>
+        <v>0.7225419964379824</v>
       </c>
       <c r="L5">
-        <v>0.1818388534495909</v>
+        <v>0.1962407873560892</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.811916181421172</v>
+        <v>0.9333694546549971</v>
       </c>
       <c r="O5">
-        <v>3.507388020435627</v>
+        <v>1.751691831607189</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5876411801841073</v>
+        <v>0.9112283773141883</v>
       </c>
       <c r="C6">
-        <v>0.1601325617832927</v>
+        <v>0.1013918303939327</v>
       </c>
       <c r="D6">
-        <v>0.04206557674890377</v>
+        <v>0.05433091426607461</v>
       </c>
       <c r="E6">
-        <v>0.112690810630788</v>
+        <v>0.06431832649633051</v>
       </c>
       <c r="F6">
-        <v>0.97559881335075</v>
+        <v>0.5436221506836674</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2755818031805006</v>
+        <v>0.7173587389963956</v>
       </c>
       <c r="L6">
-        <v>0.1815563084687142</v>
+        <v>0.1950336504506964</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.81274246820559</v>
+        <v>0.9352766154517003</v>
       </c>
       <c r="O6">
-        <v>3.50807558325306</v>
+        <v>1.750135900214204</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5997012309476304</v>
+        <v>0.9559814258851986</v>
       </c>
       <c r="C7">
-        <v>0.1601685537065514</v>
+        <v>0.1015436864322723</v>
       </c>
       <c r="D7">
-        <v>0.04261324953650103</v>
+        <v>0.05584076568737828</v>
       </c>
       <c r="E7">
-        <v>0.1128124927954381</v>
+        <v>0.06566627809155534</v>
       </c>
       <c r="F7">
-        <v>0.9754106177275759</v>
+        <v>0.5511335655044292</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2861257721451409</v>
+        <v>0.7533435673812221</v>
       </c>
       <c r="L7">
-        <v>0.1835267686367672</v>
+        <v>0.203429509660964</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.807057970453685</v>
+        <v>0.9221356167116017</v>
       </c>
       <c r="O7">
-        <v>3.503459832935448</v>
+        <v>1.761214942351586</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.653460840824124</v>
+        <v>1.154396011538665</v>
       </c>
       <c r="C8">
-        <v>0.1603504931666144</v>
+        <v>0.1022593829607636</v>
       </c>
       <c r="D8">
-        <v>0.04500058810160823</v>
+        <v>0.06246747006797193</v>
       </c>
       <c r="E8">
-        <v>0.1134751359154507</v>
+        <v>0.07182871479791686</v>
       </c>
       <c r="F8">
-        <v>0.9757508337641383</v>
+        <v>0.5864838111446744</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3327404938338248</v>
+        <v>0.9123961529680003</v>
       </c>
       <c r="L8">
-        <v>0.1924513417285567</v>
+        <v>0.2409320991921362</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.783231451866865</v>
+        <v>0.8665863962948022</v>
       </c>
       <c r="O8">
-        <v>3.48696769487924</v>
+        <v>1.817267817780703</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7607922397304776</v>
+        <v>1.547978156607059</v>
       </c>
       <c r="C9">
-        <v>0.160789084671066</v>
+        <v>0.1038297329585731</v>
       </c>
       <c r="D9">
-        <v>0.04957527409242601</v>
+        <v>0.07534780401384467</v>
       </c>
       <c r="E9">
-        <v>0.1152251885736355</v>
+        <v>0.08477375680087107</v>
       </c>
       <c r="F9">
-        <v>0.9806221767804644</v>
+        <v>0.6646184698578566</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4244360343207063</v>
+        <v>1.226038351035243</v>
       </c>
       <c r="L9">
-        <v>0.2107730314315006</v>
+        <v>0.3164404143302448</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.741028368442693</v>
+        <v>0.7668698369494029</v>
       </c>
       <c r="O9">
-        <v>3.468550780601646</v>
+        <v>1.955544091639268</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8407906717435765</v>
+        <v>1.841078511362781</v>
       </c>
       <c r="C10">
-        <v>0.1611601358179726</v>
+        <v>0.1050887864406249</v>
       </c>
       <c r="D10">
-        <v>0.05287049434147661</v>
+        <v>0.0847569315475809</v>
       </c>
       <c r="E10">
-        <v>0.1167850329405873</v>
+        <v>0.0949009062764361</v>
       </c>
       <c r="F10">
-        <v>0.9867636300128311</v>
+        <v>0.7282976180852927</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4919627630806076</v>
+        <v>1.458377565736839</v>
       </c>
       <c r="L10">
-        <v>0.2247330074573171</v>
+        <v>0.3734587975500006</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.712775750114063</v>
+        <v>0.6996699236551063</v>
       </c>
       <c r="O10">
-        <v>3.463507185780543</v>
+        <v>2.077057824621448</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8774279078903646</v>
+        <v>1.975557624505967</v>
       </c>
       <c r="C11">
-        <v>0.1613393189855969</v>
+        <v>0.1056853629196866</v>
       </c>
       <c r="D11">
-        <v>0.05435516573734134</v>
+        <v>0.08902942792247615</v>
       </c>
       <c r="E11">
-        <v>0.117554046804738</v>
+        <v>0.09966355690634288</v>
       </c>
       <c r="F11">
-        <v>0.9901139800157068</v>
+        <v>0.7588424859292218</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5227138875153798</v>
+        <v>1.564690863499521</v>
       </c>
       <c r="L11">
-        <v>0.2311919513844032</v>
+        <v>0.3998145137981197</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.700520497415737</v>
+        <v>0.6705203327840428</v>
       </c>
       <c r="O11">
-        <v>3.463055735570066</v>
+        <v>2.137288272929482</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8913362473992947</v>
+        <v>2.026671167042878</v>
       </c>
       <c r="C12">
-        <v>0.1614086459381951</v>
+        <v>0.1059147817091954</v>
       </c>
       <c r="D12">
-        <v>0.05491529280831031</v>
+        <v>0.09064651041568794</v>
       </c>
       <c r="E12">
-        <v>0.1178537829382371</v>
+        <v>0.1014913597214893</v>
       </c>
       <c r="F12">
-        <v>0.9914626671603912</v>
+        <v>0.7706547318893229</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5343628709390771</v>
+        <v>1.605055908477425</v>
       </c>
       <c r="L12">
-        <v>0.2336533325760257</v>
+        <v>0.4098619949936761</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.695965610553349</v>
+        <v>0.6596959025171598</v>
       </c>
       <c r="O12">
-        <v>3.463149727143389</v>
+        <v>2.160863961937594</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8883393092922915</v>
+        <v>2.015654128604638</v>
       </c>
       <c r="C13">
-        <v>0.1613936498909254</v>
+        <v>0.1058652148321215</v>
       </c>
       <c r="D13">
-        <v>0.05479475256210975</v>
+        <v>0.09029827425196402</v>
       </c>
       <c r="E13">
-        <v>0.1177888504513263</v>
+        <v>0.1010965978954772</v>
       </c>
       <c r="F13">
-        <v>0.9911686468553995</v>
+        <v>0.7680995185539388</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5318538755439874</v>
+        <v>1.59635754952825</v>
       </c>
       <c r="L13">
-        <v>0.2331225411529374</v>
+        <v>0.407694986162042</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.696942764978462</v>
+        <v>0.6620174632214271</v>
       </c>
       <c r="O13">
-        <v>3.463117701820977</v>
+        <v>2.155751446872642</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8785714656414143</v>
+        <v>1.979758828293512</v>
       </c>
       <c r="C14">
-        <v>0.1613449931249846</v>
+        <v>0.1057041665281488</v>
       </c>
       <c r="D14">
-        <v>0.0544012896655488</v>
+        <v>0.08916248091581025</v>
       </c>
       <c r="E14">
-        <v>0.1175785354873931</v>
+        <v>0.0998134332462044</v>
       </c>
       <c r="F14">
-        <v>0.9902233346552691</v>
+        <v>0.7598092527036187</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.523672175242865</v>
+        <v>1.568009482484342</v>
       </c>
       <c r="L14">
-        <v>0.2313941401270654</v>
+        <v>0.4006397382494242</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.700144041971894</v>
+        <v>0.6696254559249759</v>
       </c>
       <c r="O14">
-        <v>3.463058158756809</v>
+        <v>2.139212141486013</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8725928663614866</v>
+        <v>1.957797315756778</v>
       </c>
       <c r="C15">
-        <v>0.1613153808436252</v>
+        <v>0.1056059792607158</v>
       </c>
       <c r="D15">
-        <v>0.05416000995204939</v>
+        <v>0.08846667718623991</v>
       </c>
       <c r="E15">
-        <v>0.1174508214333336</v>
+        <v>0.09903067945156252</v>
       </c>
       <c r="F15">
-        <v>0.9896547181361655</v>
+        <v>0.7547637855240197</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5186611788586504</v>
+        <v>1.550659875098518</v>
       </c>
       <c r="L15">
-        <v>0.2303374632766264</v>
+        <v>0.3963271572973071</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.702116106667567</v>
+        <v>0.6743137243703385</v>
       </c>
       <c r="O15">
-        <v>3.463056188856058</v>
+        <v>2.129183030525041</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8384012237600871</v>
+        <v>1.832315097066754</v>
       </c>
       <c r="C16">
-        <v>0.1611486331473699</v>
+        <v>0.1050502850131139</v>
       </c>
       <c r="D16">
-        <v>0.05277317698701012</v>
+        <v>0.08447758259709559</v>
       </c>
       <c r="E16">
-        <v>0.1167359703864257</v>
+        <v>0.09459294911178873</v>
       </c>
       <c r="F16">
-        <v>0.9865558719802721</v>
+        <v>0.7263347499692117</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4899537212522205</v>
+        <v>1.451443680788373</v>
       </c>
       <c r="L16">
-        <v>0.2243130763585981</v>
+        <v>0.3717453894585532</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.713588678273044</v>
+        <v>0.7016043058862866</v>
       </c>
       <c r="O16">
-        <v>3.46357376783655</v>
+        <v>2.073225950226259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8174881541653747</v>
+        <v>1.755646230363908</v>
       </c>
       <c r="C17">
-        <v>0.1610489857895487</v>
+        <v>0.1047155425857014</v>
       </c>
       <c r="D17">
-        <v>0.05191871009629523</v>
+        <v>0.08202861916160487</v>
       </c>
       <c r="E17">
-        <v>0.1163126410416986</v>
+        <v>0.0919117471939721</v>
       </c>
       <c r="F17">
-        <v>0.9847973448938063</v>
+        <v>0.709311333536391</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4723506711353593</v>
+        <v>1.390748672821388</v>
       </c>
       <c r="L17">
-        <v>0.2206450378355385</v>
+        <v>0.3567771517615057</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.720779680501872</v>
+        <v>0.7187165841142535</v>
       </c>
       <c r="O17">
-        <v>3.464363254555138</v>
+        <v>2.040205024814128</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8054826634906931</v>
+        <v>1.711654661601472</v>
       </c>
       <c r="C18">
-        <v>0.1609926504160484</v>
+        <v>0.1045252448273359</v>
       </c>
       <c r="D18">
-        <v>0.0514258949258064</v>
+        <v>0.08061929051849859</v>
       </c>
       <c r="E18">
-        <v>0.1160747484478115</v>
+        <v>0.09038413121926325</v>
       </c>
       <c r="F18">
-        <v>0.9838382769862264</v>
+        <v>0.6996671419780895</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4622289883931785</v>
+        <v>1.355895861606029</v>
       </c>
       <c r="L18">
-        <v>0.2185454946470458</v>
+        <v>0.3482066887702899</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.724971943806412</v>
+        <v>0.7286921523855927</v>
       </c>
       <c r="O18">
-        <v>3.464990813210079</v>
+        <v>2.021674948358623</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8014218085243101</v>
+        <v>1.69677742015358</v>
       </c>
       <c r="C19">
-        <v>0.1609737450063022</v>
+        <v>0.1044611951770662</v>
       </c>
       <c r="D19">
-        <v>0.05125880530331983</v>
+        <v>0.08014197857369254</v>
       </c>
       <c r="E19">
-        <v>0.1159951636724834</v>
+        <v>0.08986934835931848</v>
       </c>
       <c r="F19">
-        <v>0.9835225527429756</v>
+        <v>0.6964265179641203</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4588025135104772</v>
+        <v>1.344104644673251</v>
       </c>
       <c r="L19">
-        <v>0.2178363823608578</v>
+        <v>0.3453113458188284</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.726401020780456</v>
+        <v>0.7320922728544366</v>
       </c>
       <c r="O19">
-        <v>3.46523308875345</v>
+        <v>2.015478820659013</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8197119948320335</v>
+        <v>1.763796585569651</v>
       </c>
       <c r="C20">
-        <v>0.1610594922270181</v>
+        <v>0.1047509443796457</v>
       </c>
       <c r="D20">
-        <v>0.05200980928198362</v>
+        <v>0.08228939099664245</v>
       </c>
       <c r="E20">
-        <v>0.1163571262241625</v>
+        <v>0.09219564751593268</v>
       </c>
       <c r="F20">
-        <v>0.9849791212725449</v>
+        <v>0.7111081355336992</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4742242261522165</v>
+        <v>1.397203703625991</v>
       </c>
       <c r="L20">
-        <v>0.2210344501056625</v>
+        <v>0.3583664734864414</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.720008370237489</v>
+        <v>0.7168811157266548</v>
       </c>
       <c r="O20">
-        <v>3.464261259627506</v>
+        <v>2.04367188263268</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8814395842542808</v>
+        <v>1.9902968097594</v>
       </c>
       <c r="C21">
-        <v>0.1613592449455936</v>
+        <v>0.1057513744063812</v>
       </c>
       <c r="D21">
-        <v>0.05451691605161813</v>
+        <v>0.08949611071399488</v>
       </c>
       <c r="E21">
-        <v>0.1176400788153131</v>
+        <v>0.1001896548750594</v>
       </c>
       <c r="F21">
-        <v>0.9904988254851901</v>
+        <v>0.7622374838885548</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5260752291706581</v>
+        <v>1.576332963048202</v>
       </c>
       <c r="L21">
-        <v>0.2319013928576084</v>
+        <v>0.4027101545823228</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.69920141719581</v>
+        <v>0.6673849187166372</v>
       </c>
       <c r="O21">
-        <v>3.463068457935037</v>
+        <v>2.144048839684075</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.921983561466277</v>
+        <v>2.13944330837694</v>
       </c>
       <c r="C22">
-        <v>0.1615637341537877</v>
+        <v>0.1064257068872934</v>
       </c>
       <c r="D22">
-        <v>0.05614328684723091</v>
+        <v>0.09420149654616239</v>
       </c>
       <c r="E22">
-        <v>0.1185282570388715</v>
+        <v>0.1055567529481145</v>
       </c>
       <c r="F22">
-        <v>0.9945724446693731</v>
+        <v>0.7970944841502927</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5599870924885693</v>
+        <v>1.69403399196807</v>
       </c>
       <c r="L22">
-        <v>0.2390939889457115</v>
+        <v>0.4320863127439765</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.686103658704706</v>
+        <v>0.6362879660069316</v>
       </c>
       <c r="O22">
-        <v>3.463833171941559</v>
+        <v>2.214154400496369</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9003262772671405</v>
+        <v>2.059730430827699</v>
       </c>
       <c r="C23">
-        <v>0.1614538155716332</v>
+        <v>0.1060638981817377</v>
       </c>
       <c r="D23">
-        <v>0.05527638335661322</v>
+        <v>0.09169046299928141</v>
       </c>
       <c r="E23">
-        <v>0.1180496788865746</v>
+        <v>0.1026785300314579</v>
       </c>
       <c r="F23">
-        <v>0.9923556399580065</v>
+        <v>0.778352242597677</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5418856497705349</v>
+        <v>1.631151103788568</v>
       </c>
       <c r="L23">
-        <v>0.2352469181527255</v>
+        <v>0.4163690978316907</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.693048335354891</v>
+        <v>0.6527670914188883</v>
       </c>
       <c r="O23">
-        <v>3.463283748597632</v>
+        <v>2.176306349728748</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8187065412442678</v>
+        <v>1.760111542737235</v>
       </c>
       <c r="C24">
-        <v>0.1610547392956718</v>
+        <v>0.1047349325374825</v>
       </c>
       <c r="D24">
-        <v>0.05196862823077453</v>
+        <v>0.08217150039217813</v>
       </c>
       <c r="E24">
-        <v>0.1163369973866359</v>
+        <v>0.09206725320505171</v>
       </c>
       <c r="F24">
-        <v>0.9848967784005112</v>
+        <v>0.7102953579764559</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4733771964216089</v>
+        <v>1.394285256042991</v>
       </c>
       <c r="L24">
-        <v>0.2208583679661729</v>
+        <v>0.3576478327202182</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.720356898755047</v>
+        <v>0.7177105034549021</v>
       </c>
       <c r="O24">
-        <v>3.464306830548281</v>
+        <v>2.042103105961985</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7315541259502254</v>
+        <v>1.440903859486866</v>
       </c>
       <c r="C25">
-        <v>0.160661785395888</v>
+        <v>0.1033867019418366</v>
       </c>
       <c r="D25">
-        <v>0.04834920894071359</v>
+        <v>0.07187402687454636</v>
       </c>
       <c r="E25">
-        <v>0.1147035761417037</v>
+        <v>0.08117050063173892</v>
       </c>
       <c r="F25">
-        <v>0.9788543130697533</v>
+        <v>0.6424477665939605</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3996011089199101</v>
+        <v>1.140919545330007</v>
       </c>
       <c r="L25">
-        <v>0.2057288020059787</v>
+        <v>0.2957687132446267</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.751961663483082</v>
+        <v>0.7928151252284401</v>
       </c>
       <c r="O25">
-        <v>3.472042496418453</v>
+        <v>1.914838706049352</v>
       </c>
     </row>
   </sheetData>
